--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreea.ghetu\Documents\UiPath\CSharpChanges\StudioTemplates\REFramework\C#\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REF Practices\calculate_client_security_hash\calculate_client_security_hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96902286-4E3C-425E-A0BF-F83C72A8C5F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE150B2-7005-4C64-BBCC-D52A3694F9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,6 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -102,10 +98,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
@@ -161,6 +153,12 @@
   </si>
   <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName1</t>
   </si>
 </sst>
 </file>
@@ -212,21 +210,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,9 +238,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +278,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -391,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,18 +537,18 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,27 +584,27 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="45">
-      <c r="A3" s="7" t="s">
-        <v>38</v>
+    </row>
+    <row r="3" spans="1:26" ht="43.2">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" ht="30">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -619,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -637,15 +630,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +672,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -687,24 +680,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="45">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="43.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
@@ -725,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -747,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -758,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -769,56 +760,51 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    <row r="17" spans="1:3" ht="28.8">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="45">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5" t="b">
+      <c r="B17" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -835,12 +821,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -851,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REF Practices\calculate_client_security_hash\calculate_client_security_hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE150B2-7005-4C64-BBCC-D52A3694F9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77E4DC-405D-42E3-8560-00E2ADD5263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -159,6 +159,30 @@
   </si>
   <si>
     <t>OrchestratorQueueName1</t>
+  </si>
+  <si>
+    <t>ACME_URL</t>
+  </si>
+  <si>
+    <t>SHA1_URL</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/login</t>
+  </si>
+  <si>
+    <t>ACME's platform</t>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
+  <si>
+    <t>Hash web generator</t>
+  </si>
+  <si>
+    <t>ACME_Credential</t>
+  </si>
+  <si>
+    <t>Credential for ACME's platform</t>
   </si>
 </sst>
 </file>
@@ -534,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -602,16 +626,46 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.8">
-      <c r="A5" t="s">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="28.8">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -818,7 +872,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\REF Practices\calculate_client_security_hash\calculate_client_security_hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77E4DC-405D-42E3-8560-00E2ADD5263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891D3DC3-87D4-49ED-9592-DC6D5C9D7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
